--- a/HR_contacts_sample.xlsx
+++ b/HR_contacts_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VANGURU PRADEEP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VANGURU PRADEEP\Desktop\Resum_Projects\3-Project-resume-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBE4D17-C10C-46E1-A78A-7DC92DD67722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572FF876-106F-4D28-84C6-B370893F390D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{BF799814-93B9-4334-A5B2-DAD7FFF8655E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BF799814-93B9-4334-A5B2-DAD7FFF8655E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">Sno </t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Hyd</t>
+  </si>
+  <si>
+    <t>vizag</t>
+  </si>
+  <si>
+    <t>guntur</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>pune</t>
   </si>
 </sst>
 </file>
@@ -448,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FB0914-19CB-412A-A53C-5323B3E0E5E6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +477,7 @@
     <col min="3" max="3" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +493,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,8 +513,11 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,8 +533,11 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -526,8 +553,11 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -543,8 +573,11 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -559,6 +592,9 @@
       </c>
       <c r="E6" t="s">
         <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
